--- a/docs/User Story Titles, Estimates, and Priorities 2.xlsx
+++ b/docs/User Story Titles, Estimates, and Priorities 2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>US Post product info</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Assignment Group</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -240,7 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -249,7 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -258,6 +269,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -626,7 +641,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,16 +764,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="17">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
         <v>3</v>
       </c>
     </row>
@@ -804,17 +819,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="17">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="17">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>1.5</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>20</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>4</v>
       </c>
     </row>
@@ -833,64 +848,78 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="8" customFormat="1" ht="17">
+      <c r="A16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="7">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" ht="17">
-      <c r="A16" s="8" t="s">
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17">
+      <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17">
+        <v>10</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17">
+      <c r="A20" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -898,8 +927,11 @@
       <c r="C20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="17">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="17">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -909,26 +941,32 @@
       <c r="C21" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17">
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D22">
-    <sortCondition ref="D2:D22"/>
+  <sortState ref="A15:D22">
+    <sortCondition ref="D15:D22"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
